--- a/2D视觉/bin/x64/Debug/MODEL/1.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
@@ -172,16 +169,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -199,13 +196,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -213,10 +210,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/1.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -45,21 +45,72 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">M200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M220</t>
+    <t xml:space="preserve">M350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M375</t>
   </si>
   <si>
     <t xml:space="preserve">150</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
     <t xml:space="preserve">工位编号</t>
   </si>
   <si>
@@ -69,10 +120,10 @@
     <t xml:space="preserve">NG结果信号</t>
   </si>
   <si>
-    <t xml:space="preserve">M230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M240</t>
+    <t xml:space="preserve">M381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M382</t>
   </si>
 </sst>
 </file>
@@ -169,16 +220,161 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -196,13 +392,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -210,10 +406,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/1.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/1.xlsx
@@ -51,61 +51,61 @@
     <t xml:space="preserve">M375</t>
   </si>
   <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M380</t>
+  </si>
+  <si>
     <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M380</t>
   </si>
   <si>
     <t xml:space="preserve">101</t>
@@ -220,161 +220,161 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/1.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
@@ -220,161 +223,161 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -392,13 +395,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -406,10 +409,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/1.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -54,9 +54,6 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">1,2,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
@@ -108,7 +105,7 @@
     <t xml:space="preserve">M380</t>
   </si>
   <si>
-    <t xml:space="preserve">150</t>
+    <t xml:space="preserve">100</t>
   </si>
   <si>
     <t xml:space="preserve">101</t>
@@ -223,161 +220,161 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -395,13 +392,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +406,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/1.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -229,27 +226,27 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -258,27 +255,27 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -287,27 +284,27 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -316,27 +313,27 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -345,28 +342,28 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
@@ -374,7 +371,7 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -392,13 +389,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -406,10 +403,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/1.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve">M376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -255,27 +258,27 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -289,22 +292,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -313,27 +316,27 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -347,22 +350,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -371,7 +374,7 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -389,13 +392,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -403,10 +406,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/1.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -42,73 +42,103 @@
     <t xml:space="preserve">是否后台运行</t>
   </si>
   <si>
+    <t xml:space="preserve">窗口编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光源编号</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">M350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
+    <t xml:space="preserve">M800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">M351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
+    <t xml:space="preserve">M801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">M352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M377</t>
+    <t xml:space="preserve">M802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">M353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M378</t>
+    <t xml:space="preserve">M803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">M354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M379</t>
+    <t xml:space="preserve">M804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">M355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
+    <t xml:space="preserve">M805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
   </si>
   <si>
     <t xml:space="preserve">工位编号</t>
@@ -120,10 +150,10 @@
     <t xml:space="preserve">NG结果信号</t>
   </si>
   <si>
-    <t xml:space="preserve">M381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M382</t>
+    <t xml:space="preserve">M818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M819</t>
   </si>
 </sst>
 </file>
@@ -202,179 +232,256 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -392,24 +499,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
